--- a/pnp-xls.xlsx
+++ b/pnp-xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiltum/Projects/arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C652AC-AFD7-7843-A215-8473101AA3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB05DA5-4AB0-AE4D-9F3D-749FA72020F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="34760" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>RefDes</t>
   </si>
@@ -34,670 +34,301 @@
     <t>C1</t>
   </si>
   <si>
-    <t>74.295mm</t>
-  </si>
-  <si>
-    <t>67.8mm</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>85.09mm</t>
-  </si>
-  <si>
-    <t>61.913mm</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
-    <t>3.81mm</t>
-  </si>
-  <si>
-    <t>30.928mm</t>
-  </si>
-  <si>
     <t>C102</t>
   </si>
   <si>
-    <t>6.35mm</t>
-  </si>
-  <si>
     <t>C103</t>
   </si>
   <si>
-    <t>12.7mm</t>
-  </si>
-  <si>
     <t>C104</t>
   </si>
   <si>
-    <t>15.558mm</t>
-  </si>
-  <si>
     <t>C105</t>
   </si>
   <si>
-    <t>23.813mm</t>
-  </si>
-  <si>
     <t>C106</t>
   </si>
   <si>
-    <t>26.67mm</t>
-  </si>
-  <si>
     <t>C107</t>
   </si>
   <si>
-    <t>33.655mm</t>
-  </si>
-  <si>
     <t>C108</t>
   </si>
   <si>
-    <t>36.513mm</t>
-  </si>
-  <si>
     <t>C201</t>
   </si>
   <si>
-    <t>64.135mm</t>
-  </si>
-  <si>
-    <t>62.115mm</t>
-  </si>
-  <si>
     <t>C202</t>
   </si>
   <si>
-    <t>3.925mm</t>
-  </si>
-  <si>
-    <t>65.405mm</t>
-  </si>
-  <si>
     <t>C203</t>
   </si>
   <si>
-    <t>67.628mm</t>
-  </si>
-  <si>
     <t>C204</t>
   </si>
   <si>
-    <t>6.465mm</t>
-  </si>
-  <si>
-    <t>70.168mm</t>
-  </si>
-  <si>
     <t>C205</t>
   </si>
   <si>
-    <t>3.997mm</t>
-  </si>
-  <si>
-    <t>62.548mm</t>
-  </si>
-  <si>
     <t>C206</t>
   </si>
   <si>
-    <t>7.62mm</t>
-  </si>
-  <si>
-    <t>63.947mm</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>71.29mm</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>45.085mm</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>57.15mm</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
     <t>D101</t>
   </si>
   <si>
-    <t>2.858mm</t>
-  </si>
-  <si>
-    <t>15.303mm</t>
-  </si>
-  <si>
     <t>D102</t>
   </si>
   <si>
-    <t>56.198mm</t>
-  </si>
-  <si>
-    <t>40.128mm</t>
-  </si>
-  <si>
     <t>D103</t>
   </si>
   <si>
-    <t>55.18mm</t>
-  </si>
-  <si>
-    <t>44.768mm</t>
-  </si>
-  <si>
     <t>D104</t>
   </si>
   <si>
-    <t>35.625mm</t>
-  </si>
-  <si>
     <t>D105</t>
   </si>
   <si>
     <t>D106</t>
   </si>
   <si>
-    <t>71.438mm</t>
-  </si>
-  <si>
-    <t>40.763mm</t>
-  </si>
-  <si>
     <t>D107</t>
   </si>
   <si>
-    <t>68.832mm</t>
-  </si>
-  <si>
     <t>D108</t>
   </si>
   <si>
-    <t>35.308mm</t>
-  </si>
-  <si>
     <t>D109</t>
   </si>
   <si>
-    <t>22.86mm</t>
-  </si>
-  <si>
     <t>D110</t>
   </si>
   <si>
-    <t>87.63mm</t>
-  </si>
-  <si>
     <t>D111</t>
   </si>
   <si>
-    <t>82.485mm</t>
-  </si>
-  <si>
     <t>D112</t>
   </si>
   <si>
     <t>D113</t>
   </si>
   <si>
-    <t>32.385mm</t>
-  </si>
-  <si>
     <t>D114</t>
   </si>
   <si>
-    <t>88.265mm</t>
-  </si>
-  <si>
-    <t>51.24mm</t>
-  </si>
-  <si>
     <t>D115</t>
   </si>
   <si>
     <t>D116</t>
   </si>
   <si>
-    <t>85.408mm</t>
-  </si>
-  <si>
-    <t>52.005mm</t>
-  </si>
-  <si>
     <t>D201</t>
   </si>
   <si>
-    <t>6.095mm</t>
-  </si>
-  <si>
-    <t>73.342mm</t>
-  </si>
-  <si>
     <t>D202</t>
   </si>
   <si>
-    <t>45.72mm</t>
-  </si>
-  <si>
-    <t>27.773mm</t>
-  </si>
-  <si>
     <t>Q101</t>
   </si>
   <si>
-    <t>56.373mm</t>
-  </si>
-  <si>
-    <t>48.16mm</t>
-  </si>
-  <si>
     <t>Q102</t>
   </si>
   <si>
-    <t>70.66mm</t>
-  </si>
-  <si>
     <t>Q103</t>
   </si>
   <si>
-    <t>82.408mm</t>
-  </si>
-  <si>
     <t>Q104</t>
   </si>
   <si>
-    <t>56.097mm</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>73.78mm</t>
-  </si>
-  <si>
-    <t>65.722mm</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>77.153mm</t>
-  </si>
-  <si>
-    <t>72.605mm</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>74.81mm</t>
-  </si>
-  <si>
-    <t>70.803mm</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>82.867mm</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
-    <t>66.992mm</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
-    <t>64.77mm</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
-    <t>42.545mm</t>
-  </si>
-  <si>
-    <t>68.58mm</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>54.293mm</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
-    <t>60.008mm</t>
-  </si>
-  <si>
-    <t>68.898mm</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>65.087mm</t>
-  </si>
-  <si>
     <t>R101</t>
   </si>
   <si>
-    <t>8.058mm</t>
-  </si>
-  <si>
-    <t>36.83mm</t>
-  </si>
-  <si>
     <t>R102</t>
   </si>
   <si>
-    <t>6.033mm</t>
-  </si>
-  <si>
-    <t>13.595mm</t>
-  </si>
-  <si>
     <t>R103</t>
   </si>
   <si>
-    <t>17.087mm</t>
-  </si>
-  <si>
     <t>R104</t>
   </si>
   <si>
-    <t>5.913mm</t>
-  </si>
-  <si>
     <t>R105</t>
   </si>
   <si>
-    <t>52.705mm</t>
-  </si>
-  <si>
-    <t>49.41mm</t>
-  </si>
-  <si>
     <t>R106</t>
   </si>
   <si>
-    <t>58.222mm</t>
-  </si>
-  <si>
     <t>R107</t>
   </si>
   <si>
-    <t>8.572mm</t>
-  </si>
-  <si>
-    <t>13.335mm</t>
-  </si>
-  <si>
     <t>R108</t>
   </si>
   <si>
-    <t>47.428mm</t>
-  </si>
-  <si>
     <t>R109</t>
   </si>
   <si>
-    <t>16.947mm</t>
-  </si>
-  <si>
     <t>R110</t>
   </si>
   <si>
-    <t>15.875mm</t>
-  </si>
-  <si>
     <t>R111</t>
   </si>
   <si>
     <t>R112</t>
   </si>
   <si>
-    <t>14.803mm</t>
-  </si>
-  <si>
     <t>R113</t>
   </si>
   <si>
     <t>R114</t>
   </si>
   <si>
-    <t>18.732mm</t>
-  </si>
-  <si>
     <t>R115</t>
   </si>
   <si>
-    <t>71.875mm</t>
-  </si>
-  <si>
     <t>R116</t>
   </si>
   <si>
-    <t>47.075mm</t>
-  </si>
-  <si>
     <t>R117</t>
   </si>
   <si>
-    <t>27.742mm</t>
-  </si>
-  <si>
     <t>R118</t>
   </si>
   <si>
-    <t>25.717mm</t>
-  </si>
-  <si>
     <t>R119</t>
   </si>
   <si>
     <t>R120</t>
   </si>
   <si>
-    <t>25.597mm</t>
-  </si>
-  <si>
     <t>R121</t>
   </si>
   <si>
-    <t>79.375mm</t>
-  </si>
-  <si>
-    <t>49.727mm</t>
-  </si>
-  <si>
     <t>R122</t>
   </si>
   <si>
-    <t>28.258mm</t>
-  </si>
-  <si>
     <t>R123</t>
   </si>
   <si>
-    <t>85.21mm</t>
-  </si>
-  <si>
     <t>R124</t>
   </si>
   <si>
     <t>R125</t>
   </si>
   <si>
-    <t>37.585mm</t>
-  </si>
-  <si>
     <t>R126</t>
   </si>
   <si>
-    <t>35.878mm</t>
-  </si>
-  <si>
     <t>R127</t>
   </si>
   <si>
     <t>R128</t>
   </si>
   <si>
-    <t>35.44mm</t>
-  </si>
-  <si>
     <t>R129</t>
   </si>
   <si>
-    <t>38.1mm</t>
-  </si>
-  <si>
     <t>R130</t>
   </si>
   <si>
-    <t>57.7mm</t>
-  </si>
-  <si>
     <t>R131</t>
   </si>
   <si>
-    <t>55.365mm</t>
-  </si>
-  <si>
     <t>R132</t>
   </si>
   <si>
     <t>R201</t>
   </si>
   <si>
-    <t>63.817mm</t>
-  </si>
-  <si>
-    <t>57.905mm</t>
-  </si>
-  <si>
     <t>R202</t>
   </si>
   <si>
-    <t>55.563mm</t>
-  </si>
-  <si>
     <t>R203</t>
   </si>
   <si>
-    <t>63.5mm</t>
-  </si>
-  <si>
-    <t>53.658mm</t>
-  </si>
-  <si>
     <t>R204</t>
   </si>
   <si>
-    <t>61.595mm</t>
-  </si>
-  <si>
-    <t>54.928mm</t>
-  </si>
-  <si>
     <t>R205</t>
   </si>
   <si>
-    <t>31.115mm</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>79.852mm</t>
-  </si>
-  <si>
-    <t>66.357mm</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>29.21mm</t>
-  </si>
-  <si>
-    <t>66.2mm</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>27.84mm</t>
-  </si>
-  <si>
-    <t>72.532mm</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
-    <t>22.125mm</t>
-  </si>
-  <si>
     <t>U201</t>
   </si>
   <si>
-    <t>68.955mm</t>
-  </si>
-  <si>
-    <t>59.21mm</t>
-  </si>
-  <si>
     <t>VO101</t>
   </si>
   <si>
-    <t>4.355mm</t>
-  </si>
-  <si>
-    <t>23.308mm</t>
-  </si>
-  <si>
     <t>VO102</t>
   </si>
   <si>
-    <t>14.197mm</t>
-  </si>
-  <si>
     <t>VO103</t>
   </si>
   <si>
-    <t>24.357mm</t>
-  </si>
-  <si>
     <t>VO104</t>
-  </si>
-  <si>
-    <t>33.883mm</t>
   </si>
   <si>
     <t>X</t>
@@ -1187,8 +818,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1547,20 +1179,23 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1573,14 +1208,14 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>74.295000000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>67.8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -1588,16 +1223,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>85.09</v>
+      </c>
+      <c r="C3" s="1">
+        <v>61.912999999999997</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1605,16 +1240,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -1622,16 +1257,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>90</v>
@@ -1639,16 +1274,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -1656,16 +1291,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15.558</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>90</v>
@@ -1673,16 +1308,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>90</v>
@@ -1690,16 +1325,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -1707,16 +1342,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1">
+        <v>33.655000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30.928000000000001</v>
+      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -1724,16 +1359,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>36.512999999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30.928000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>90</v>
@@ -1741,16 +1376,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64.135000000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>62.115000000000002</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>270</v>
@@ -1758,16 +1393,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>65.405000000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1775,16 +1410,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>67.628</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1792,16 +1427,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70.168000000000006</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1809,16 +1444,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>62.548000000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>180</v>
@@ -1826,16 +1461,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.62</v>
+      </c>
+      <c r="C17" s="1">
+        <v>63.947000000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>90</v>
@@ -1843,16 +1478,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>67.628</v>
+      </c>
+      <c r="C18" s="1">
+        <v>71.290000000000006</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>270</v>
@@ -1860,16 +1495,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45.085000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>71.290000000000006</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>270</v>
@@ -1877,16 +1512,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57.15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>71.290000000000006</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>270</v>
@@ -1894,16 +1529,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>62.548000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>71.290000000000006</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>270</v>
@@ -1911,16 +1546,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15.303000000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>270</v>
@@ -1928,16 +1563,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>56.198</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40.128</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>90</v>
@@ -1945,16 +1580,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>55.18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44.768000000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>180</v>
@@ -1962,16 +1597,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="C25" s="1">
+        <v>35.625</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>90</v>
@@ -1979,16 +1614,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.303000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>270</v>
@@ -1996,16 +1631,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>71.438000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40.762999999999998</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>90</v>
@@ -2013,16 +1648,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>68.831999999999994</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44.768000000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>180</v>
@@ -2030,16 +1665,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>35.308</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>90</v>
@@ -2047,16 +1682,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>22.86</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15.303000000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>270</v>
@@ -2064,16 +1699,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>40.762999999999998</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -2081,16 +1716,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>82.484999999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45.085000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>180</v>
@@ -2098,16 +1733,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35.625</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>90</v>
@@ -2115,16 +1750,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32.384999999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15.303000000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>270</v>
@@ -2132,16 +1767,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>51.24</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>90</v>
@@ -2149,16 +1784,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33.655000000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35.625</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>90</v>
@@ -2166,16 +1801,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>85.408000000000001</v>
+      </c>
+      <c r="C37" s="1">
+        <v>52.005000000000003</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>270</v>
@@ -2183,16 +1818,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="C38" s="1">
+        <v>73.341999999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>180</v>
@@ -2200,16 +1835,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45.72</v>
+      </c>
+      <c r="C39" s="1">
+        <v>27.773</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>270</v>
@@ -2217,16 +1852,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>56.372999999999998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>48.16</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2234,16 +1869,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>70.66</v>
+      </c>
+      <c r="C41" s="1">
+        <v>48.16</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2251,16 +1886,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>82.408000000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>48.16</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2268,16 +1903,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>82.408000000000001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>56.097000000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2285,16 +1920,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>73.78</v>
+      </c>
+      <c r="C44" s="1">
+        <v>65.721999999999994</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>180</v>
@@ -2302,16 +1937,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>77.153000000000006</v>
+      </c>
+      <c r="C45" s="1">
+        <v>72.605000000000004</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>90</v>
@@ -2319,16 +1954,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>74.81</v>
+      </c>
+      <c r="C46" s="1">
+        <v>70.802999999999997</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2336,16 +1971,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>82.867000000000004</v>
+      </c>
+      <c r="C47" s="1">
+        <v>61.912999999999997</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>180</v>
@@ -2353,16 +1988,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>85.408000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>66.992000000000004</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>90</v>
@@ -2370,16 +2005,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>85.408000000000001</v>
+      </c>
+      <c r="C49" s="1">
+        <v>64.77</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>90</v>
@@ -2387,16 +2022,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42.545000000000002</v>
+      </c>
+      <c r="C50" s="1">
+        <v>68.58</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -2404,16 +2039,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>54.292999999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>68.58</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>90</v>
@@ -2421,16 +2056,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>60.008000000000003</v>
+      </c>
+      <c r="C52" s="1">
+        <v>68.897999999999996</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>90</v>
@@ -2438,16 +2073,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>65.087000000000003</v>
+      </c>
+      <c r="C53" s="1">
+        <v>68.897999999999996</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>90</v>
@@ -2455,16 +2090,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8.0579999999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>36.83</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>180</v>
@@ -2472,16 +2107,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13.595000000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>90</v>
@@ -2489,16 +2124,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17.087</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>90</v>
@@ -2506,16 +2141,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5.9130000000000003</v>
+      </c>
+      <c r="C57" s="1">
+        <v>36.83</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2523,16 +2158,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>52.704999999999998</v>
+      </c>
+      <c r="C58" s="1">
+        <v>49.41</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>90</v>
@@ -2540,16 +2175,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58.222000000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44.768000000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>180</v>
@@ -2557,16 +2192,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8.5719999999999992</v>
+      </c>
+      <c r="C60" s="1">
+        <v>13.335000000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -2574,16 +2209,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
+        <v>63</v>
+      </c>
+      <c r="B61" s="1">
+        <v>52.704999999999998</v>
+      </c>
+      <c r="C61" s="1">
+        <v>47.427999999999997</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>270</v>
@@ -2591,16 +2226,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16.946999999999999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>36.83</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>180</v>
@@ -2608,16 +2243,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15.875</v>
+      </c>
+      <c r="C63" s="1">
+        <v>13.595000000000001</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>90</v>
@@ -2625,16 +2260,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
+        <v>66</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15.875</v>
+      </c>
+      <c r="C64" s="1">
+        <v>17.087</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>90</v>
@@ -2642,16 +2277,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" t="s">
-        <v>128</v>
+        <v>67</v>
+      </c>
+      <c r="B65" s="1">
+        <v>14.803000000000001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>36.83</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2659,16 +2294,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="B66" s="1">
+        <v>67.628</v>
+      </c>
+      <c r="C66" s="1">
+        <v>49.41</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>90</v>
@@ -2676,16 +2311,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>18.731999999999999</v>
+      </c>
+      <c r="C67" s="1">
+        <v>13.335000000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>90</v>
@@ -2693,16 +2328,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>156</v>
-      </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>71.875</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44.768000000000001</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>180</v>
@@ -2710,16 +2345,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>159</v>
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>67.628</v>
+      </c>
+      <c r="C69" s="1">
+        <v>47.075000000000003</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <v>270</v>
@@ -2727,16 +2362,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" t="s">
-        <v>128</v>
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>27.742000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>36.83</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>180</v>
@@ -2744,16 +2379,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <v>25.716999999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>13.595000000000001</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>90</v>
@@ -2761,16 +2396,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25.716999999999999</v>
+      </c>
+      <c r="C72" s="1">
+        <v>17.087</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>90</v>
@@ -2778,16 +2413,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" t="s">
-        <v>128</v>
+        <v>75</v>
+      </c>
+      <c r="B73" s="1">
+        <v>25.597000000000001</v>
+      </c>
+      <c r="C73" s="1">
+        <v>36.83</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2795,16 +2430,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" t="s">
-        <v>169</v>
+        <v>76</v>
+      </c>
+      <c r="B74" s="1">
+        <v>79.375</v>
+      </c>
+      <c r="C74" s="1">
+        <v>49.726999999999997</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>90</v>
@@ -2812,16 +2447,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" t="s">
-        <v>143</v>
+        <v>77</v>
+      </c>
+      <c r="B75" s="1">
+        <v>28.257999999999999</v>
+      </c>
+      <c r="C75" s="1">
+        <v>13.335000000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>90</v>
@@ -2829,16 +2464,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="B76" s="1">
+        <v>85.21</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45.085000000000001</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>180</v>
@@ -2846,16 +2481,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
+        <v>79</v>
+      </c>
+      <c r="B77" s="1">
+        <v>79.375</v>
+      </c>
+      <c r="C77" s="1">
+        <v>47.427999999999997</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>270</v>
@@ -2863,16 +2498,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="B78" s="1">
+        <v>37.585000000000001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>36.83</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>180</v>
@@ -2880,16 +2515,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
+        <v>81</v>
+      </c>
+      <c r="B79" s="1">
+        <v>35.878</v>
+      </c>
+      <c r="C79" s="1">
+        <v>13.595000000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>90</v>
@@ -2897,16 +2532,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="B80" s="1">
+        <v>35.878</v>
+      </c>
+      <c r="C80" s="1">
+        <v>17.087</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -2914,16 +2549,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>180</v>
-      </c>
-      <c r="B81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="B81" s="1">
+        <v>35.44</v>
+      </c>
+      <c r="C81" s="1">
+        <v>36.83</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2931,16 +2566,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C82" t="s">
-        <v>143</v>
+        <v>84</v>
+      </c>
+      <c r="B82" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>13.335000000000001</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>90</v>
@@ -2948,16 +2583,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>185</v>
+        <v>85</v>
+      </c>
+      <c r="B83" s="1">
+        <v>79.375</v>
+      </c>
+      <c r="C83" s="1">
+        <v>57.7</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>90</v>
@@ -2965,16 +2600,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>187</v>
+        <v>86</v>
+      </c>
+      <c r="B84" s="1">
+        <v>79.375</v>
+      </c>
+      <c r="C84" s="1">
+        <v>55.365000000000002</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>270</v>
@@ -2982,16 +2617,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" t="s">
-        <v>187</v>
+        <v>87</v>
+      </c>
+      <c r="B85" s="1">
+        <v>85.408000000000001</v>
+      </c>
+      <c r="C85" s="1">
+        <v>55.365000000000002</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>270</v>
@@ -2999,16 +2634,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" t="s">
-        <v>191</v>
+        <v>88</v>
+      </c>
+      <c r="B86" s="1">
+        <v>63.817</v>
+      </c>
+      <c r="C86" s="1">
+        <v>57.905000000000001</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>270</v>
@@ -3016,16 +2651,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>192</v>
-      </c>
-      <c r="B87" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" t="s">
-        <v>193</v>
+        <v>89</v>
+      </c>
+      <c r="B87" s="1">
+        <v>63.817</v>
+      </c>
+      <c r="C87" s="1">
+        <v>55.563000000000002</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>90</v>
@@ -3033,16 +2668,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>194</v>
-      </c>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" t="s">
-        <v>196</v>
+        <v>90</v>
+      </c>
+      <c r="B88" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>53.658000000000001</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>180</v>
@@ -3050,16 +2685,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" t="s">
-        <v>199</v>
+        <v>91</v>
+      </c>
+      <c r="B89" s="1">
+        <v>61.594999999999999</v>
+      </c>
+      <c r="C89" s="1">
+        <v>54.927999999999997</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>90</v>
@@ -3067,16 +2702,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>201</v>
+        <v>92</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45.72</v>
+      </c>
+      <c r="C90" s="1">
+        <v>31.114999999999998</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <v>270</v>
@@ -3084,16 +2719,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" t="s">
-        <v>204</v>
+        <v>93</v>
+      </c>
+      <c r="B91" s="1">
+        <v>79.852000000000004</v>
+      </c>
+      <c r="C91" s="1">
+        <v>66.356999999999999</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3101,16 +2736,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>205</v>
-      </c>
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" t="s">
-        <v>207</v>
+        <v>94</v>
+      </c>
+      <c r="B92" s="1">
+        <v>29.21</v>
+      </c>
+      <c r="C92" s="1">
+        <v>66.2</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E92">
         <v>90</v>
@@ -3118,16 +2753,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="B93" s="1">
+        <v>22.86</v>
+      </c>
+      <c r="C93" s="1">
+        <v>66.2</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>90</v>
@@ -3135,16 +2770,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>209</v>
-      </c>
-      <c r="B94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" t="s">
-        <v>211</v>
+        <v>96</v>
+      </c>
+      <c r="B94" s="1">
+        <v>27.84</v>
+      </c>
+      <c r="C94" s="1">
+        <v>72.531999999999996</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>270</v>
@@ -3152,16 +2787,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" t="s">
-        <v>211</v>
+        <v>97</v>
+      </c>
+      <c r="B95" s="1">
+        <v>22.125</v>
+      </c>
+      <c r="C95" s="1">
+        <v>72.531999999999996</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>270</v>
@@ -3169,16 +2804,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" t="s">
-        <v>216</v>
+        <v>98</v>
+      </c>
+      <c r="B96" s="1">
+        <v>68.954999999999998</v>
+      </c>
+      <c r="C96" s="1">
+        <v>59.21</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3186,16 +2821,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
+        <v>99</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="C97" s="1">
+        <v>23.308</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3203,16 +2838,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>220</v>
-      </c>
-      <c r="B98" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
+        <v>100</v>
+      </c>
+      <c r="B98" s="1">
+        <v>14.196999999999999</v>
+      </c>
+      <c r="C98" s="1">
+        <v>23.308</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3220,16 +2855,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" t="s">
-        <v>223</v>
-      </c>
-      <c r="C99" t="s">
-        <v>219</v>
+        <v>101</v>
+      </c>
+      <c r="B99" s="1">
+        <v>24.356999999999999</v>
+      </c>
+      <c r="C99" s="1">
+        <v>23.308</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3237,16 +2872,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" t="s">
-        <v>219</v>
+        <v>102</v>
+      </c>
+      <c r="B100" s="1">
+        <v>33.883000000000003</v>
+      </c>
+      <c r="C100" s="1">
+        <v>23.308</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <v>0</v>
